--- a/Component.xlsx
+++ b/Component.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Desktop\Altium_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC22F6FC-CCDD-465E-AFD3-4B4ED5166F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8C99BB-DFCE-4D58-AA14-7713AF00F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="670" windowWidth="15250" windowHeight="10490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Component.xlsx
+++ b/Component.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Desktop\Altium_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8C99BB-DFCE-4D58-AA14-7713AF00F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B16D4-6387-4A1D-958E-1D9D8F767486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="670" windowWidth="15250" windowHeight="10490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Component.xlsx
+++ b/Component.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Desktop\Altium_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B16D4-6387-4A1D-958E-1D9D8F767486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB6B518-DD0F-4BFE-B9C2-612CBE66436A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="670" windowWidth="15250" windowHeight="10490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Description</t>
   </si>
@@ -85,6 +85,66 @@
   </si>
   <si>
     <t>TB002-500-02BE</t>
+  </si>
+  <si>
+    <t>LED Sequencer</t>
+  </si>
+  <si>
+    <t>cd4017bm</t>
+  </si>
+  <si>
+    <t>texas instrument</t>
+  </si>
+  <si>
+    <t>CMOS Decade Counter</t>
+  </si>
+  <si>
+    <t>ne555dr</t>
+  </si>
+  <si>
+    <t>555 type timeer oscillator</t>
+  </si>
+  <si>
+    <t>hlmp1301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red led </t>
+  </si>
+  <si>
+    <t>broadcom avago</t>
+  </si>
+  <si>
+    <t>1k resistor</t>
+  </si>
+  <si>
+    <t>yangeo</t>
+  </si>
+  <si>
+    <t>RC0805FR-071KL</t>
+  </si>
+  <si>
+    <t>3386P-1-104LF</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>poentiometer</t>
+  </si>
+  <si>
+    <t>GRM21BR71H105KA1</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>capacitors</t>
+  </si>
+  <si>
+    <t>Harwin</t>
+  </si>
+  <si>
+    <t>M20-9990246</t>
   </si>
 </sst>
 </file>
@@ -426,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,119 +607,189 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -708,8 +838,9 @@
       <c r="G24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{DBAD99DE-7BF8-4ED6-9504-49EBF4CF4F5A}"/>

--- a/Component.xlsx
+++ b/Component.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Desktop\Altium_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB6B518-DD0F-4BFE-B9C2-612CBE66436A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D97083C-8D2E-4536-A9DA-886DD3636227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3920" yWindow="670" windowWidth="15250" windowHeight="10490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,13 +138,13 @@
     <t>Murata</t>
   </si>
   <si>
-    <t>capacitors</t>
-  </si>
-  <si>
     <t>Harwin</t>
   </si>
   <si>
     <t>M20-9990246</t>
+  </si>
+  <si>
+    <t>capacitors 1uF</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,7 +716,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -732,15 +732,15 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>

--- a/Component.xlsx
+++ b/Component.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Desktop\Altium_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D97083C-8D2E-4536-A9DA-886DD3636227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1593C31B-9DD5-4276-906B-CDA42A91B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="670" windowWidth="15250" windowHeight="10490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,67 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Manufacrurer_Name</t>
-  </si>
-  <si>
-    <t>Manufacturer_Part_Number</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Terminal Block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humidity Sensor </t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Supply</t>
-  </si>
-  <si>
-    <t>CUI Inc.</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>A000066</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>Elechip</t>
-  </si>
-  <si>
-    <t>DHT22</t>
-  </si>
-  <si>
-    <t>Humidity Sensor DHT 22</t>
-  </si>
-  <si>
-    <t>A000066 | Arduino Uno Rev3 Arduino Corporation Embedded System Development Boards &amp; Kits Microcontroller 16MHz - Arrow.com</t>
-  </si>
-  <si>
-    <t>TB002-500-02BE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>LED Sequencer</t>
   </si>
@@ -151,18 +91,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,11 +117,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,15 +128,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,350 +429,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B7:G7"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{DBAD99DE-7BF8-4ED6-9504-49EBF4CF4F5A}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{2D16C96B-67E0-49C5-9599-89D93A39F570}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Component.xlsx
+++ b/Component.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alice\Desktop\Altium_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1593C31B-9DD5-4276-906B-CDA42A91B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB793BC-79C3-427D-BCAF-44C79C33563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
